--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6063E-A4E9-407C-971C-87D2DB34B07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C8403-C724-4FE0-A39E-784485B76780}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C8403-C724-4FE0-A39E-784485B76780}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A781B-8433-4AA3-B025-D9AF3225F3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
   <si>
     <t>Тема</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Python Core (requests, pyqt6)</t>
   </si>
   <si>
-    <t>Python Core (aiogram, kivy)</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Websocket</t>
+  </si>
+  <si>
+    <t>Python Core (aiogram)</t>
   </si>
 </sst>
 </file>
@@ -226,13 +226,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -512,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -573,6 +579,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -855,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -886,21 +895,21 @@
         <v>8</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>45114</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -927,7 +936,7 @@
       <c r="A3" s="16">
         <v>45122</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -952,7 +961,7 @@
       <c r="A4" s="16">
         <v>45138</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -977,7 +986,7 @@
       <c r="A5" s="16">
         <v>45139</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1002,7 +1011,7 @@
       <c r="A6" s="16">
         <v>45140</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1027,7 +1036,7 @@
       <c r="A7" s="16">
         <v>45141</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1052,7 +1061,7 @@
       <c r="A8" s="18">
         <v>45142</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1075,7 +1084,7 @@
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1092,7 +1101,7 @@
       <c r="A10" s="17">
         <v>45145</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1102,14 +1111,14 @@
         <v>10</v>
       </c>
       <c r="E10" s="12">
-        <v>1.0902777777777777</v>
+        <v>1.086111111111111</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" ref="G10:G21" si="1">(E10-F10)</f>
-        <v>9.0277777777777679E-2</v>
+        <v>8.6111111111111027E-2</v>
       </c>
       <c r="H10" s="33">
         <v>19.5</v>
@@ -1119,8 +1128,8 @@
       <c r="A11" s="16">
         <v>45146</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
+      <c r="B11" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -1129,14 +1138,14 @@
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0972222222222223</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="1"/>
-        <v>9.0277777777777679E-2</v>
+        <v>9.7222222222222321E-2</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -1144,8 +1153,8 @@
       <c r="A12" s="16">
         <v>45147</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1154,14 +1163,14 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.1104166666666666</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
-        <v>9.0277777777777679E-2</v>
+        <v>0.11041666666666661</v>
       </c>
       <c r="H12" s="34"/>
     </row>
@@ -1170,7 +1179,7 @@
         <v>45148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -1195,10 +1204,10 @@
         <v>45149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -1220,13 +1229,13 @@
         <v>45157</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>1.0902777777777777</v>
@@ -1245,13 +1254,13 @@
         <v>45158</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>1.0902777777777777</v>
@@ -1270,13 +1279,13 @@
         <v>45164</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>1.0902777777777777</v>
@@ -1295,13 +1304,13 @@
         <v>45165</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7">
         <v>1.0902777777777777</v>
@@ -1317,7 +1326,7 @@
     </row>
     <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -1326,7 +1335,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="23">
         <f>SUM(G10:G18)</f>
-        <v>0.81249999999999911</v>
+        <v>0.83541666666666603</v>
       </c>
       <c r="H19" s="35"/>
     </row>
@@ -1335,13 +1344,13 @@
         <v>45171</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D20" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="12">
         <v>1.0902777777777777</v>
@@ -1362,13 +1371,13 @@
         <v>45172</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3">
         <v>1.0902777777777777</v>
@@ -1387,13 +1396,13 @@
         <v>45178</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3">
         <v>1.0902777777777777</v>
@@ -1412,13 +1421,13 @@
         <v>45179</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="3">
         <v>1.0902777777777777</v>
@@ -1437,13 +1446,13 @@
         <v>45185</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="E24" s="3">
         <v>1.0902777777777777</v>
@@ -1462,13 +1471,13 @@
         <v>45186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3">
         <v>1.0902777777777777</v>
@@ -1487,13 +1496,13 @@
         <v>45192</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3">
         <v>1.0902777777777777</v>
@@ -1512,13 +1521,13 @@
         <v>45193</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3">
         <v>1.0902777777777777</v>
@@ -1537,13 +1546,13 @@
         <v>45199</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="7">
         <v>1.0902777777777777</v>
@@ -1559,7 +1568,7 @@
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -1577,13 +1586,13 @@
         <v>45200</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E30" s="12">
         <v>1.0902777777777777</v>
@@ -1604,13 +1613,13 @@
         <v>45206</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3">
         <v>1.0902777777777777</v>
@@ -1629,13 +1638,13 @@
         <v>45207</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="E32" s="3">
         <v>1.0902777777777777</v>
@@ -1654,13 +1663,13 @@
         <v>45213</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3">
         <v>1.0902777777777777</v>
@@ -1682,10 +1691,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3">
         <v>1.0902777777777777</v>
@@ -1704,13 +1713,13 @@
         <v>45220</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="D35" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3">
         <v>1.0902777777777777</v>
@@ -1728,15 +1737,6 @@
       <c r="A36" s="16">
         <v>45221</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="E36" s="3">
         <v>1.0902777777777777</v>
       </c>
@@ -1753,15 +1753,6 @@
       <c r="A37" s="16">
         <v>45227</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="E37" s="3">
         <v>1.0902777777777777</v>
       </c>
@@ -1792,7 +1783,7 @@
     </row>
     <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -1889,7 +1880,7 @@
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A781B-8433-4AA3-B025-D9AF3225F3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F37599-8DE5-4BD6-BC3D-24C92E4B1EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Тема</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Python Core (aiogram)</t>
+  </si>
+  <si>
+    <t>Python Libraries</t>
   </si>
 </sst>
 </file>
@@ -549,6 +552,9 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,9 +585,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -909,7 +912,7 @@
       <c r="A2" s="17">
         <v>45114</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -928,7 +931,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="36">
         <v>15.8</v>
       </c>
     </row>
@@ -936,7 +939,7 @@
       <c r="A3" s="16">
         <v>45122</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -955,13 +958,13 @@
         <f t="shared" ref="G3:G8" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>45138</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -980,13 +983,13 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>45139</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1005,13 +1008,13 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>45140</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1030,13 +1033,13 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>45141</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1055,13 +1058,13 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>45142</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1080,28 +1083,28 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="23">
         <f>SUM(G2:G8)</f>
         <v>0.65069444444444446</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>45145</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1117,18 +1120,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" ref="G10:G21" si="1">(E10-F10)</f>
+        <f t="shared" ref="G10:G20" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="33">
-        <v>19.5</v>
+      <c r="H10" s="36">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>45146</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1147,13 +1150,13 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>45147</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1172,13 +1175,13 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>45148</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1197,11 +1200,11 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
-        <v>45149</v>
+        <v>45157</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -1219,23 +1222,23 @@
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <f t="shared" si="1"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H14" s="34"/>
+        <f>(E14-F14)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
-        <v>45157</v>
+        <v>45158</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <v>1.0902777777777777</v>
@@ -1247,20 +1250,20 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
-        <v>45158</v>
+        <v>45164</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="3">
         <v>1.0902777777777777</v>
@@ -1272,76 +1275,78 @@
         <f>(E16-F16)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>45164</v>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>45165</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22">
+        <f>(E17-F17)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="23">
+        <f>SUM(G10:G17)</f>
+        <v>0.74513888888888835</v>
+      </c>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>45171</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21">
-        <f>(E17-F17)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>45165</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22">
-        <f>(E18-F18)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="23">
-        <f>SUM(G10:G18)</f>
-        <v>0.83541666666666603</v>
-      </c>
-      <c r="H19" s="35"/>
+      <c r="E19" s="12">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H19" s="36">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>45171</v>
+      <c r="A20" s="16">
+        <v>45172</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -1352,29 +1357,27 @@
       <c r="D20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="12">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
+      <c r="E20" s="3">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H20" s="33">
-        <v>19.5</v>
-      </c>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
-        <v>45172</v>
+        <v>45178</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>40</v>
@@ -1386,23 +1389,23 @@
         <v>1</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="1"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H21" s="34"/>
+        <f t="shared" ref="G21:G22" si="2">(E21-F21)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3">
         <v>1.0902777777777777</v>
@@ -1411,23 +1414,23 @@
         <v>1</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" ref="G22:G23" si="2">(E22-F22)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H22" s="34"/>
+        <f t="shared" si="2"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
-        <v>45179</v>
+        <v>45185</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3">
         <v>1.0902777777777777</v>
@@ -1436,23 +1439,23 @@
         <v>1</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" si="2"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H23" s="34"/>
+        <f t="shared" ref="G23:G24" si="3">(E23-F23)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3">
         <v>1.0902777777777777</v>
@@ -1461,23 +1464,23 @@
         <v>1</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:G25" si="3">(E24-F24)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H24" s="34"/>
+        <f t="shared" si="3"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
-        <v>45186</v>
+        <v>45192</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E25" s="3">
         <v>1.0902777777777777</v>
@@ -1486,20 +1489,20 @@
         <v>1</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" si="3"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H25" s="34"/>
+        <f t="shared" ref="G25:G26" si="4">(E25-F25)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>46</v>
@@ -1511,115 +1514,115 @@
         <v>1</v>
       </c>
       <c r="G26" s="21">
-        <f t="shared" ref="G26:G27" si="4">(E26-F26)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>45193</v>
+        <f t="shared" si="4"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
+        <v>45199</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="21">
-        <f t="shared" si="4"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H27" s="34"/>
+      <c r="E27" s="7">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
+        <f>(E27-F27)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
-        <v>45199</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="23">
+        <f>SUM(G19:G27)</f>
+        <v>0.81249999999999911</v>
+      </c>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>45200</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="25" t="s">
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="7">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
-        <f>(E28-F28)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="23">
-        <f>SUM(G20:G28)</f>
-        <v>0.81249999999999911</v>
-      </c>
-      <c r="H29" s="35"/>
+      <c r="E29" s="12">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" ref="G29:G30" si="5">(E29-F29)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H29" s="36">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>45200</v>
+      <c r="A30" s="16">
+        <v>45206</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F30" s="12">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" ref="G30:G31" si="5">(E30-F30)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H30" s="33">
-        <v>19.5</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="5"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E31" s="3">
         <v>1.0902777777777777</v>
@@ -1628,23 +1631,23 @@
         <v>1</v>
       </c>
       <c r="G31" s="21">
-        <f t="shared" si="5"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H31" s="34"/>
+        <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
-        <v>45207</v>
+        <v>45213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E32" s="3">
         <v>1.0902777777777777</v>
@@ -1653,20 +1656,20 @@
         <v>1</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" ref="G32:G33" si="6">(E32-F32)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H32" s="34"/>
+        <f t="shared" si="6"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
-        <v>45213</v>
+        <v>45214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>30</v>
@@ -1678,17 +1681,17 @@
         <v>1</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="6"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H33" s="34"/>
+        <f t="shared" ref="G33:G34" si="7">(E33-F33)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
-        <v>45214</v>
+        <v>45220</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>30</v>
@@ -1703,17 +1706,17 @@
         <v>1</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" ref="G34:G35" si="7">(E34-F34)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H34" s="34"/>
+        <f t="shared" si="7"/>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>30</v>
@@ -1728,14 +1731,23 @@
         <v>1</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="7"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H35" s="34"/>
+        <f t="shared" ref="G35" si="8">(E35-F35)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
-        <v>45221</v>
+        <v>45227</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="E36" s="3">
         <v>1.0902777777777777</v>
@@ -1744,79 +1756,88 @@
         <v>1</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" ref="G36" si="8">(E36-F36)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>45227</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="21">
-        <f>(E37-F37)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H37" s="34"/>
+        <f>(E36-F36)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18">
+        <v>45228</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" ref="G37" si="9">(E37-F37)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18">
-        <v>45228</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="22">
-        <f t="shared" ref="G38" si="9">(E38-F38)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
+      <c r="A38" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="23">
-        <f>SUM(G30:G38)</f>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="23">
+        <f>SUM(G29:G37)</f>
         <v>0.81249999999999911</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>45234</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="20">
+        <f>(E39-F39)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H39" s="36">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
-        <v>45234</v>
-      </c>
-      <c r="E40" s="12">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F40" s="12">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20">
+      <c r="A40" s="16">
+        <v>45235</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21">
         <f>(E40-F40)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H40" s="33">
-        <v>10.8</v>
-      </c>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
-        <v>45235</v>
+        <v>45241</v>
       </c>
       <c r="E41" s="3">
         <v>1.0902777777777777</v>
@@ -1828,11 +1849,11 @@
         <f>(E41-F41)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H41" s="34"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
-        <v>45241</v>
+        <v>45242</v>
       </c>
       <c r="E42" s="3">
         <v>1.0902777777777777</v>
@@ -1844,11 +1865,11 @@
         <f>(E42-F42)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H42" s="34"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
-        <v>45242</v>
+        <v>45248</v>
       </c>
       <c r="E43" s="3">
         <v>1.0902777777777777</v>
@@ -1860,74 +1881,62 @@
         <f>(E43-F43)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
-        <v>45248</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="21">
-        <f>(E44-F44)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H44" s="34"/>
+      <c r="A44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="23">
+        <f>SUM(G39:G43)</f>
+        <v>0.4513888888888884</v>
+      </c>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="23">
-        <f>SUM(G40:G44)</f>
-        <v>0.4513888888888884</v>
-      </c>
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="26" t="s">
+      <c r="A46" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="11" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="24">
-        <f>SUM(H2:H46)</f>
-        <v>85.1</v>
-      </c>
+      <c r="H46" s="24">
+        <f>SUM(H2:H45)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="9"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49" s="4"/>
@@ -1953,24 +1962,20 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H10:H19"/>
-    <mergeCell ref="H20:H29"/>
-    <mergeCell ref="H30:H39"/>
-    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H10:H18"/>
+    <mergeCell ref="H19:H28"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="H39:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F37599-8DE5-4BD6-BC3D-24C92E4B1EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645991B2-BB07-4174-A752-8FF495109CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Тема</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Python Libraries</t>
+  </si>
+  <si>
+    <t>Python Web (flask)</t>
   </si>
 </sst>
 </file>
@@ -865,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1124,7 +1127,7 @@
         <v>8.6111111111111027E-2</v>
       </c>
       <c r="H10" s="36">
-        <v>17.899999999999999</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1191,14 +1194,14 @@
         <v>10</v>
       </c>
       <c r="E13" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0465277777777777</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>9.0277777777777679E-2</v>
+        <v>4.6527777777777724E-2</v>
       </c>
       <c r="H13" s="37"/>
     </row>
@@ -1206,8 +1209,8 @@
       <c r="A14" s="16">
         <v>45157</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
+      <c r="B14" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1216,14 +1219,14 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0840277777777778</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="21">
         <f>(E14-F14)</f>
-        <v>9.0277777777777679E-2</v>
+        <v>8.4027777777777812E-2</v>
       </c>
       <c r="H14" s="37"/>
     </row>
@@ -1282,13 +1285,13 @@
         <v>45165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="7">
         <v>1.0902777777777777</v>
@@ -1313,7 +1316,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="23">
         <f>SUM(G10:G17)</f>
-        <v>0.74513888888888835</v>
+        <v>0.69513888888888853</v>
       </c>
       <c r="H18" s="38"/>
     </row>
@@ -1322,13 +1325,13 @@
         <v>45171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E19" s="12">
         <v>1.0902777777777777</v>
@@ -1349,13 +1352,13 @@
         <v>45172</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3">
         <v>1.0902777777777777</v>
@@ -1374,13 +1377,13 @@
         <v>45178</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="3">
         <v>1.0902777777777777</v>
@@ -1399,13 +1402,13 @@
         <v>45179</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3">
         <v>1.0902777777777777</v>
@@ -1424,13 +1427,13 @@
         <v>45185</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3">
         <v>1.0902777777777777</v>
@@ -1449,13 +1452,13 @@
         <v>45186</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3">
         <v>1.0902777777777777</v>
@@ -1474,13 +1477,13 @@
         <v>45192</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3">
         <v>1.0902777777777777</v>
@@ -1499,13 +1502,13 @@
         <v>45193</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>1.0902777777777777</v>
@@ -1524,13 +1527,13 @@
         <v>45199</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E27" s="7">
         <v>1.0902777777777777</v>
@@ -1564,13 +1567,13 @@
         <v>45200</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="12">
         <v>1.0902777777777777</v>
@@ -1591,13 +1594,13 @@
         <v>45206</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30" s="3">
         <v>1.0902777777777777</v>
@@ -1616,13 +1619,13 @@
         <v>45207</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E31" s="3">
         <v>1.0902777777777777</v>
@@ -1641,13 +1644,13 @@
         <v>45213</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="3">
         <v>1.0902777777777777</v>
@@ -1666,13 +1669,13 @@
         <v>45214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3">
         <v>1.0902777777777777</v>
@@ -1816,7 +1819,7 @@
         <v>9.0277777777777679E-2</v>
       </c>
       <c r="H39" s="36">
-        <v>10.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1867,7 +1870,7 @@
       </c>
       <c r="H42" s="37"/>
     </row>
-    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>45248</v>
       </c>
@@ -1884,59 +1887,71 @@
       <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="16">
+        <v>45249</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="21">
+        <f>(E44-F44)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="23">
-        <f>SUM(G39:G43)</f>
-        <v>0.4513888888888884</v>
-      </c>
-      <c r="H44" s="38"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="23">
+        <f>SUM(G39:G44)</f>
+        <v>0.54166666666666607</v>
+      </c>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="11" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="24">
-        <f>SUM(H2:H45)</f>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="9"/>
+      <c r="H47" s="24">
+        <f>SUM(H2:H46)</f>
+        <v>84.6</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49" s="4"/>
@@ -1962,20 +1977,24 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="H2:H9"/>
     <mergeCell ref="H10:H18"/>
     <mergeCell ref="H19:H28"/>
     <mergeCell ref="H29:H38"/>
-    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="H39:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645991B2-BB07-4174-A752-8FF495109CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868DD61-AB39-4882-8469-2F21AED965F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Тема</t>
   </si>
@@ -93,15 +93,9 @@
     <t>сейчас</t>
   </si>
   <si>
-    <t>JavaScript Core ()</t>
-  </si>
-  <si>
     <t>JavaScript Core</t>
   </si>
   <si>
-    <t>React Core ()</t>
-  </si>
-  <si>
     <t>React Core</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Использование: GraphQl, ClickHouse, MongoDb.</t>
   </si>
   <si>
-    <t>Typescript Core ()</t>
-  </si>
-  <si>
     <t>Typescript Core</t>
   </si>
   <si>
@@ -153,34 +144,43 @@
     <t>Подготовить javascript-awesome</t>
   </si>
   <si>
-    <t>Тестирование</t>
-  </si>
-  <si>
-    <t>ORM</t>
-  </si>
-  <si>
-    <t>Очереди</t>
-  </si>
-  <si>
-    <t>Material UI</t>
-  </si>
-  <si>
     <t>Подготовить FastApi-awesome (по Fastapi ещё раз пройти курс с нуля)</t>
   </si>
   <si>
     <t>Подготовить react-awesome (по вёрстке, html/css просмотреть курс)</t>
   </si>
   <si>
-    <t>Websocket</t>
-  </si>
-  <si>
     <t>Python Core (aiogram)</t>
   </si>
   <si>
-    <t>Python Libraries</t>
-  </si>
-  <si>
     <t>Python Web (flask)</t>
+  </si>
+  <si>
+    <t>декабрь</t>
+  </si>
+  <si>
+    <t>FastApi ORM</t>
+  </si>
+  <si>
+    <t>FastApi Websocket</t>
+  </si>
+  <si>
+    <t>FastApi Очереди</t>
+  </si>
+  <si>
+    <t>FastApi Тестирование</t>
+  </si>
+  <si>
+    <t>React Material UI</t>
+  </si>
+  <si>
+    <t>React Redux</t>
+  </si>
+  <si>
+    <t>React Hooks</t>
+  </si>
+  <si>
+    <t>React Pagination</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -520,11 +520,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -555,9 +605,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,6 +633,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -881,7 +946,7 @@
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="72.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="36.88671875" style="5"/>
@@ -912,10 +977,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="36">
         <v>45114</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -934,15 +999,15 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="33">
         <v>15.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="37">
         <v>45122</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -961,13 +1026,13 @@
         <f t="shared" ref="G3:G8" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="37">
         <v>45138</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -986,13 +1051,13 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="37">
         <v>45139</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1011,13 +1076,13 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="37">
         <v>45140</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1036,13 +1101,13 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="37">
         <v>45141</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1061,13 +1126,13 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="38">
         <v>45142</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1086,28 +1151,28 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="23">
         <f>SUM(G2:G8)</f>
         <v>0.65069444444444446</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="36">
         <v>45145</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1123,18 +1188,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" ref="G10:G20" si="1">(E10-F10)</f>
+        <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="33">
         <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="37">
         <v>45146</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1153,14 +1218,14 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="37">
         <v>45147</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>49</v>
+      <c r="B12" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1178,14 +1243,14 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="37">
         <v>45148</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>49</v>
+      <c r="B13" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -1203,14 +1268,14 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="37">
         <v>45157</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>51</v>
+      <c r="B14" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1228,14 +1293,14 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37">
         <v>45158</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
+      <c r="B15" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1253,748 +1318,737 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>45164</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21">
-        <f>(E16-F16)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>45165</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="23">
+        <f>SUM(G10:G15)</f>
+        <v>0.51458333333333317</v>
+      </c>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
+        <v>45171</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="12">
         <v>1.0902777777777777</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22">
-        <f>(E17-F17)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="23">
-        <f>SUM(G10:G17)</f>
-        <v>0.69513888888888853</v>
-      </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>45171</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="36">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="H17" s="33">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
         <v>45172</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B18" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>1.0902777777777777</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37">
+        <v>45185</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.0902777777777777</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="37">
+        <v>45186</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
-        <v>45178</v>
+        <v>45192</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" ref="G21:G22" si="2">(E21-F21)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H21" s="37"/>
+        <f t="shared" ref="G21:G22" si="3">(E21-F21)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
-        <v>45179</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>46</v>
+        <v>45193</v>
       </c>
       <c r="E22" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" si="2"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>45185</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>45199</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" ref="G23:G24" si="3">(E23-F23)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>45186</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="3"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H24" s="37"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
+        <f>(E23-F23)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="23">
+        <f>SUM(G17:G23)</f>
+        <v>0.60416666666666607</v>
+      </c>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>45192</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>30</v>
+      <c r="A25" s="17">
+        <v>45200</v>
       </c>
       <c r="E25" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="21">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20">
         <f t="shared" ref="G25:G26" si="4">(E25-F25)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H25" s="37"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H25" s="33">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
-        <v>45193</v>
+        <v>45206</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="4"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>45199</v>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>45207</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
-        <f>(E27-F27)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="23">
-        <f>SUM(G19:G27)</f>
-        <v>0.81249999999999911</v>
-      </c>
-      <c r="H28" s="38"/>
+        <v>37</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" ref="G27:G28" si="5">(E27-F27)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>45213</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>45200</v>
+      <c r="A29" s="16">
+        <v>45214</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" ref="G29:G30" si="5">(E29-F29)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H29" s="36">
-        <v>19.5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" ref="G29:G30" si="6">(E29-F29)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
-        <v>45206</v>
+        <v>45220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="5"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H30" s="37"/>
+        <f t="shared" si="6"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>45207</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>40</v>
+        <v>45221</v>
       </c>
       <c r="E31" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="21">
-        <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H31" s="37"/>
+        <f t="shared" ref="G31" si="7">(E31-F31)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
-        <v>45213</v>
+        <v>45227</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="6"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>45214</v>
+        <f>(E32-F32)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
+        <v>45228</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" ref="G33:G34" si="7">(E33-F33)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>45220</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="7"/>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H34" s="37"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" ref="G33" si="8">(E33-F33)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="23">
+        <f>SUM(G25:G33)</f>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>45221</v>
+      <c r="A35" s="17">
+        <v>45234</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" ref="G35" si="8">(E35-F35)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H35" s="37"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" ref="G35:G42" si="9">(E35-F35)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H35" s="33">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
-        <v>45227</v>
+        <v>45235</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E36" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="21">
-        <f>(E36-F36)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18">
-        <v>45228</v>
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>45241</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="22">
-        <f t="shared" ref="G37" si="9">(E37-F37)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="23">
-        <f>SUM(G29:G37)</f>
-        <v>0.81249999999999911</v>
-      </c>
-      <c r="H38" s="38"/>
+        <v>28</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>45242</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>45234</v>
-      </c>
-      <c r="E39" s="12">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1</v>
-      </c>
-      <c r="G39" s="20">
-        <f>(E39-F39)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H39" s="36">
-        <v>13</v>
-      </c>
+      <c r="A39" s="16">
+        <v>45248</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
-        <v>45235</v>
+        <v>45249</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E40" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="21">
-        <f>(E40-F40)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H40" s="37"/>
+        <f t="shared" ref="G40:G41" si="10">(E40-F40)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
-        <v>45241</v>
+        <v>45255</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E41" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
       </c>
       <c r="G41" s="21">
-        <f>(E41-F41)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
-        <v>45242</v>
+        <v>45256</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="21">
-        <f>(E42-F42)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H42" s="37"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>45248</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1.0902777777777777</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="21">
-        <f>(E43-F43)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H43" s="37"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="23">
+        <f>SUM(G35:G42)</f>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="H43" s="35"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
-        <v>45249</v>
+        <v>45262</v>
       </c>
       <c r="E44" s="3">
-        <v>1.0902777777777777</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
       </c>
       <c r="G44" s="21">
-        <f>(E44-F44)</f>
-        <v>9.0277777777777679E-2</v>
-      </c>
-      <c r="H44" s="37"/>
+        <f t="shared" ref="G44" si="11">(E44-F44)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H44" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="23">
-        <f>SUM(G39:G44)</f>
-        <v>0.54166666666666607</v>
-      </c>
-      <c r="H45" s="38"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="A46" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="45">
+        <f>SUM(G44:G45)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="11" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="24">
-        <f>SUM(H2:H46)</f>
+      <c r="H48" s="24">
+        <f>SUM(H2:H47)</f>
         <v>84.6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A47:F47"/>
+  <mergeCells count="14">
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H10:H18"/>
-    <mergeCell ref="H19:H28"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="H17:H24"/>
+    <mergeCell ref="H25:H34"/>
+    <mergeCell ref="H35:H43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="H44:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868DD61-AB39-4882-8469-2F21AED965F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408727F-CA27-451A-9C7A-BC7E6266437A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -605,6 +605,12 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,12 +641,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,9 +648,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -977,10 +974,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="26">
         <v>45114</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -999,15 +996,15 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="37">
         <v>15.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+      <c r="A3" s="27">
         <v>45122</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1026,13 +1023,13 @@
         <f t="shared" ref="G3:G8" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+      <c r="A4" s="27">
         <v>45138</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1051,13 +1048,13 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+      <c r="A5" s="27">
         <v>45139</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1076,13 +1073,13 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
+      <c r="A6" s="27">
         <v>45140</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1101,13 +1098,13 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37">
+      <c r="A7" s="27">
         <v>45141</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1126,13 +1123,13 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38">
+      <c r="A8" s="28">
         <v>45142</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1151,28 +1148,28 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="23">
         <f>SUM(G2:G8)</f>
         <v>0.65069444444444446</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>45145</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1191,15 +1188,15 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="37">
         <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+      <c r="A11" s="27">
         <v>45146</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1218,13 +1215,13 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
+      <c r="A12" s="27">
         <v>45147</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1243,13 +1240,13 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="27">
         <v>45148</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1268,13 +1265,13 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
+      <c r="A14" s="27">
         <v>45157</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1293,13 +1290,13 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37">
+      <c r="A15" s="27">
         <v>45158</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1318,28 +1315,28 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="23">
         <f>SUM(G10:G15)</f>
         <v>0.51458333333333317</v>
       </c>
-      <c r="H16" s="35"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="A17" s="26">
         <v>45171</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1358,15 +1355,15 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="37">
         <v>14.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+      <c r="A18" s="27">
         <v>45172</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1385,13 +1382,13 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="34"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
+      <c r="A19" s="27">
         <v>45185</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1410,13 +1407,13 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
+      <c r="A20" s="27">
         <v>45186</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1435,7 +1432,7 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
@@ -1457,7 +1454,7 @@
         <f t="shared" ref="G21:G22" si="3">(E21-F21)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
@@ -1473,7 +1470,7 @@
         <f t="shared" si="3"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
@@ -1495,22 +1492,22 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="23">
         <f>SUM(G17:G23)</f>
         <v>0.60416666666666607</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
@@ -1526,7 +1523,7 @@
         <f t="shared" ref="G25:G26" si="4">(E25-F25)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="37">
         <v>19.5</v>
       </c>
     </row>
@@ -1550,7 +1547,7 @@
         <f t="shared" si="4"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
@@ -1572,7 +1569,7 @@
         <f t="shared" ref="G27:G28" si="5">(E27-F27)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
@@ -1594,7 +1591,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
@@ -1616,7 +1613,7 @@
         <f t="shared" ref="G29:G30" si="6">(E29-F29)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
@@ -1638,7 +1635,7 @@
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="34"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
@@ -1654,7 +1651,7 @@
         <f t="shared" ref="G31" si="7">(E31-F31)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
@@ -1679,7 +1676,7 @@
         <f>(E32-F32)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="34"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18">
@@ -1701,22 +1698,22 @@
         <f t="shared" ref="G33" si="8">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="23">
         <f>SUM(G25:G33)</f>
         <v>0.74999999999999933</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
@@ -1738,7 +1735,7 @@
         <f t="shared" ref="G35:G42" si="9">(E35-F35)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="37">
         <v>16</v>
       </c>
     </row>
@@ -1762,7 +1759,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
@@ -1784,7 +1781,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
@@ -1809,7 +1806,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
@@ -1834,7 +1831,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
@@ -1859,7 +1856,7 @@
         <f t="shared" ref="G40:G41" si="10">(E40-F40)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H40" s="34"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
@@ -1884,7 +1881,7 @@
         <f t="shared" si="10"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="34"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
@@ -1909,22 +1906,22 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="34"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="23">
         <f>SUM(G35:G42)</f>
         <v>0.66666666666666607</v>
       </c>
-      <c r="H43" s="35"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
@@ -1940,7 +1937,7 @@
         <f t="shared" ref="G44" si="11">(E44-F44)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="40">
         <v>2</v>
       </c>
     </row>
@@ -1952,42 +1949,42 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="43"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="45">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="29">
         <f>SUM(G44:G45)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H46" s="44"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="11" t="s">
         <v>6</v>
       </c>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408727F-CA27-451A-9C7A-BC7E6266437A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4023BD49-069C-4BB4-9694-E61C56640E34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2676" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>Тема</t>
   </si>
@@ -90,66 +90,15 @@
     <t>ноябрь</t>
   </si>
   <si>
-    <t>сейчас</t>
-  </si>
-  <si>
-    <t>JavaScript Core</t>
-  </si>
-  <si>
-    <t>React Core</t>
-  </si>
-  <si>
     <t>Свои golang наработки</t>
   </si>
   <si>
     <t>Golang + Gin</t>
   </si>
   <si>
-    <t>Go Core</t>
-  </si>
-  <si>
-    <t>Публикация FastaApi на хостинге, с покупкой домена</t>
-  </si>
-  <si>
-    <t>Подготовить</t>
-  </si>
-  <si>
-    <t>Публикация FastaApi на linux с kubernetes(Doker) и всеми сервисами (Redis, Celery, Postgre).</t>
-  </si>
-  <si>
-    <t>Использование: Git, Graphana, Ansible.</t>
-  </si>
-  <si>
-    <t>Использование: GraphQl, ClickHouse, MongoDb.</t>
-  </si>
-  <si>
-    <t>Typescript Core</t>
-  </si>
-  <si>
     <t>Python Web (flask, django)</t>
   </si>
   <si>
-    <t>FastApi Core ()</t>
-  </si>
-  <si>
-    <t>FastApi Core</t>
-  </si>
-  <si>
-    <t>Подготовить typescript-awesome</t>
-  </si>
-  <si>
-    <t>Подготовить react-awesome</t>
-  </si>
-  <si>
-    <t>Подготовить javascript-awesome</t>
-  </si>
-  <si>
-    <t>Подготовить FastApi-awesome (по Fastapi ещё раз пройти курс с нуля)</t>
-  </si>
-  <si>
-    <t>Подготовить react-awesome (по вёрстке, html/css просмотреть курс)</t>
-  </si>
-  <si>
     <t>Python Core (aiogram)</t>
   </si>
   <si>
@@ -171,28 +120,117 @@
     <t>FastApi Тестирование</t>
   </si>
   <si>
-    <t>React Material UI</t>
-  </si>
-  <si>
     <t>React Redux</t>
   </si>
   <si>
     <t>React Hooks</t>
   </si>
   <si>
-    <t>React Pagination</t>
+    <t>июль</t>
+  </si>
+  <si>
+    <t>январь</t>
+  </si>
+  <si>
+    <t>Python Desktop</t>
+  </si>
+  <si>
+    <t>JavaScript Core + TypeScript Core</t>
+  </si>
+  <si>
+    <t>JavaScript Awesome + TypeScript Awesome</t>
+  </si>
+  <si>
+    <t>React Base</t>
+  </si>
+  <si>
+    <t>Graphana</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>GraphQl</t>
+  </si>
+  <si>
+    <t>ClickHouse</t>
+  </si>
+  <si>
+    <t>MongoDb</t>
+  </si>
+  <si>
+    <t>Python Desktop + JavaScript Core + TypeScript Core</t>
+  </si>
+  <si>
+    <t>FastApi</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Развернуть на Linux. Пару вариантов применения.</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>React Additions</t>
+  </si>
+  <si>
+    <t>Material UI, Bootstrap, Tailwind</t>
+  </si>
+  <si>
+    <t>React Design</t>
+  </si>
+  <si>
+    <t>cra, jsx, react-components, react-router-dom</t>
+  </si>
+  <si>
+    <t>react-redux-base, react-redux-complex</t>
+  </si>
+  <si>
+    <t>useState, useEffect, useRef, useCallback, customHooks</t>
+  </si>
+  <si>
+    <t>loader, pagination, errors, video-player, charts</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>Развернуть Docker на Linux(vmware/vbox): FastApi + PostgreSQL + Redis. Показать суть kubernetes.</t>
+  </si>
+  <si>
+    <t>Публикация FastaApi</t>
+  </si>
+  <si>
+    <t>Публикация на хостинге(hoster.kz), с покупкой домена</t>
+  </si>
+  <si>
+    <t>FastApi Base</t>
+  </si>
+  <si>
+    <t>routing, controller…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +254,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,13 +277,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +295,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -270,19 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -324,21 +379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -410,27 +450,199 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -441,103 +653,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -545,114 +662,197 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,78 +1130,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="95.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="17" customWidth="1"/>
     <col min="9" max="16384" width="36.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="18">
         <v>45114</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="20">
         <v>1.1319444444444444</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21">
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="37">
-        <v>15.8</v>
+      <c r="H2" s="44">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="16">
         <v>45122</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1019,14 +1219,14 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="21">
-        <f t="shared" ref="G3:G8" si="0">(E3-F3)</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="38"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="16">
         <v>45138</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1044,156 +1244,156 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="23">
+        <f>SUM(G2:G4)</f>
+        <v>0.2763888888888888</v>
+      </c>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>45139</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="20">
         <v>1.0930555555555554</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="H6" s="44">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>45140</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>1.0986111111111112</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>45141</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>1.0909722222222222</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>45142</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="3">
         <v>1.0916666666666668</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="23">
-        <f>SUM(G2:G8)</f>
-        <v>0.65069444444444446</v>
-      </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="16">
         <v>45145</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="3">
         <v>1.086111111111111</v>
       </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="37">
-        <v>16.8</v>
-      </c>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="16">
         <v>45146</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1211,18 +1411,18 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="16">
         <v>45147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1236,18 +1436,18 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="16">
         <v>45148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -1261,18 +1461,18 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="16">
         <v>45157</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -1286,18 +1486,18 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="4">
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27">
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>45158</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1311,60 +1511,60 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="4">
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="23">
-        <f>SUM(G10:G15)</f>
-        <v>0.51458333333333317</v>
-      </c>
-      <c r="H16" s="39"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="25">
+        <f>SUM(G6:G15)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="18">
         <v>45171</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="20">
         <v>1.0902777777777777</v>
       </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="37">
-        <v>14.5</v>
+      <c r="H17" s="44">
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="16">
         <v>45172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -1378,18 +1578,18 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="16">
         <v>45185</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1403,18 +1603,18 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="4">
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>45186</v>
+      <c r="A20" s="16">
+        <v>45193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -1428,136 +1628,131 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>45192</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="25">
+        <f>SUM(G17:G20)</f>
+        <v>0.3541666666666663</v>
+      </c>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>45213</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" ref="G21:G22" si="3">(E21-F21)</f>
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>45193</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>45199</v>
+      <c r="H22" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>45227</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E23" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="23">
-        <f>SUM(G17:G23)</f>
-        <v>0.60416666666666607</v>
-      </c>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>45200</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>45228</v>
+      </c>
+      <c r="E24" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F25" s="12">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <f t="shared" ref="G25:G26" si="4">(E25-F25)</f>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H25" s="37">
-        <v>19.5</v>
-      </c>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="24">
+        <f>SUM(G22:G24)</f>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>45206</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="A26" s="13">
+        <v>45234</v>
+      </c>
+      <c r="E26" s="9">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="4"/>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26:G30" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="38"/>
+      <c r="H26" s="63">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>45207</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>37</v>
+      <c r="A27" s="12">
+        <v>45235</v>
       </c>
       <c r="E27" s="3">
         <v>1.0833333333333333</v>
@@ -1565,21 +1760,15 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="21">
-        <f t="shared" ref="G27:G28" si="5">(E27-F27)</f>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="38"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>45213</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>37</v>
+      <c r="A28" s="12">
+        <v>45241</v>
       </c>
       <c r="E28" s="3">
         <v>1.0833333333333333</v>
@@ -1587,21 +1776,15 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="4">
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="38"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>45214</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>37</v>
+      <c r="A29" s="12">
+        <v>45242</v>
       </c>
       <c r="E29" s="3">
         <v>1.0833333333333333</v>
@@ -1609,21 +1792,15 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="21">
-        <f t="shared" ref="G29:G30" si="6">(E29-F29)</f>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="38"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>45220</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>40</v>
+      <c r="A30" s="12">
+        <v>45248</v>
       </c>
       <c r="E30" s="3">
         <v>1.0833333333333333</v>
@@ -1631,123 +1808,101 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>45249</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>45255</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>45221</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" ref="G31" si="7">(E31-F31)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>45227</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21">
-        <f>(E32-F32)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="18">
-        <v>45228</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>45256</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="22">
-        <f t="shared" ref="G33" si="8">(E33-F33)</f>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" ref="G33" si="7">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="23">
-        <f>SUM(G25:G33)</f>
-        <v>0.74999999999999933</v>
-      </c>
-      <c r="H34" s="39"/>
+      <c r="A34" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="25">
+        <f>SUM(G26:G33)</f>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>45234</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="A35" s="26">
+        <v>45262</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F35" s="12">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20">
-        <f t="shared" ref="G35:G42" si="9">(E35-F35)</f>
+      <c r="F35" s="20">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" ref="G35" si="8">(E35-F35)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="37">
-        <v>16</v>
+      <c r="H35" s="44">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>45235</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>39</v>
+      <c r="A36" s="12">
+        <v>45263</v>
       </c>
       <c r="E36" s="3">
         <v>1.0833333333333333</v>
@@ -1755,121 +1910,79 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="4">
+        <f t="shared" ref="G36:G44" si="9">(E36-F36)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>45269</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>45241</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>45270</v>
+      </c>
+      <c r="E38" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="21">
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <v>45242</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>45276</v>
+      </c>
+      <c r="E39" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="21">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <v>45248</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>45277</v>
+      </c>
+      <c r="E40" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="21">
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>45249</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="21">
-        <f t="shared" ref="G40:G41" si="10">(E40-F40)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>45255</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>28</v>
+      <c r="A41" s="12">
+        <v>45283</v>
       </c>
       <c r="E41" s="3">
         <v>1.0833333333333333</v>
@@ -1877,24 +1990,15 @@
       <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="21">
-        <f t="shared" si="10"/>
+      <c r="G41" s="4">
+        <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="16">
-        <v>45256</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>28</v>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>45284</v>
       </c>
       <c r="E42" s="3">
         <v>1.0833333333333333</v>
@@ -1902,30 +2006,31 @@
       <c r="F42" s="3">
         <v>1</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="4">
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="38"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="23">
-        <f>SUM(G35:G42)</f>
-        <v>0.66666666666666607</v>
-      </c>
-      <c r="H43" s="39"/>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>45290</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>45262</v>
+      <c r="A44" s="12">
+        <v>45291</v>
       </c>
       <c r="E44" s="3">
         <v>1.0833333333333333</v>
@@ -1933,119 +2038,487 @@
       <c r="F44" s="3">
         <v>1</v>
       </c>
-      <c r="G44" s="21">
-        <f t="shared" ref="G44" si="11">(E44-F44)</f>
+      <c r="G44" s="4">
+        <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H44" s="40">
-        <v>2</v>
-      </c>
+      <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="41"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+      <c r="A45" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="25">
+        <f>SUM(G35:G44)</f>
+        <v>0.83333333333333259</v>
+      </c>
+      <c r="H45" s="48"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="26">
+        <v>45297</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F46" s="20">
+        <v>1</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" ref="G46" si="10">(E46-F46)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H46" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>45298</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" ref="G47:G48" si="11">(E47-F47)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>45304</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="11"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>45305</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>45311</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="45"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>45312</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="45"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>45318</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="45"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>45319</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="31">
+        <f>SUM(G46:G53)</f>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="H54" s="51"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="53">
+        <f>SUM(H2:H54)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="70"/>
+      <c r="B57" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="73"/>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="74"/>
+      <c r="B58" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="69"/>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="74"/>
+      <c r="B59" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="69"/>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="74"/>
+      <c r="B60" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="69"/>
+    </row>
+    <row r="61" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="75"/>
+      <c r="B61" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="78"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="39"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="26"/>
+      <c r="B63" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="55"/>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="12"/>
+      <c r="B64" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="H64" s="54"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="12"/>
+      <c r="B65" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="H65" s="54"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="12"/>
+      <c r="B66" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="H66" s="54"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="12"/>
+      <c r="B67" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="33"/>
+      <c r="B68" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="56"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="39"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="26"/>
+      <c r="B70" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="55"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="12"/>
+      <c r="B71" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="54"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="12"/>
+      <c r="B72" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="54"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="12"/>
+      <c r="B73" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="54"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="12"/>
+      <c r="B74" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="54"/>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="12"/>
+      <c r="B75" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="54"/>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="12"/>
+      <c r="B76" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="54"/>
+    </row>
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="12"/>
+      <c r="B77" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="54"/>
+    </row>
+    <row r="78" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="33"/>
+      <c r="B78" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="29">
-        <f>SUM(G44:G45)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H46" s="42"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="24">
-        <f>SUM(H2:H47)</f>
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="C78" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="56"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A9:F9"/>
+  <mergeCells count="15">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A55:F55"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="H17:H24"/>
-    <mergeCell ref="H25:H34"/>
-    <mergeCell ref="H35:H43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H34"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="H35:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4023BD49-069C-4BB4-9694-E61C56640E34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C5309-9B36-4A8B-876D-9FF5FCE79753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -714,16 +714,10 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -748,46 +742,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,9 +777,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,13 +786,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,22 +804,49 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1169,7 @@
       <c r="G1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1196,8 +1196,8 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="44">
-        <v>7</v>
+      <c r="H2" s="70">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
@@ -1248,22 +1248,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="23">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="48"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -1288,8 +1288,8 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="44">
-        <v>21.5</v>
+      <c r="H6" s="70">
+        <v>26.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1340,7 +1340,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1365,7 +1365,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
@@ -1390,7 +1390,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
@@ -1415,7 +1415,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
@@ -1440,7 +1440,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -1465,7 +1465,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -1490,7 +1490,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -1515,22 +1515,22 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="25">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="48"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
@@ -1555,8 +1555,8 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="44">
-        <v>8.5</v>
+      <c r="H17" s="70">
+        <v>9.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1582,7 +1582,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
@@ -1607,7 +1607,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
@@ -1632,22 +1632,22 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="25">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="72"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
@@ -1672,7 +1672,7 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="70">
         <v>6</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -1715,22 +1715,22 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="24">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="51"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
@@ -1746,7 +1746,7 @@
         <f t="shared" ref="G26:G30" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="78">
         <v>16</v>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -1780,7 +1780,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -1796,7 +1796,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="71"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
@@ -1812,7 +1812,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -1828,7 +1828,7 @@
         <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -1844,7 +1844,7 @@
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
@@ -1862,22 +1862,22 @@
         <f t="shared" ref="G33" si="7">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="71"/>
     </row>
     <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="25">
         <f>SUM(G26:G33)</f>
         <v>0.66666666666666607</v>
       </c>
-      <c r="H34" s="48"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
@@ -1896,8 +1896,8 @@
         <f t="shared" ref="G35" si="8">(E35-F35)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="44">
-        <v>20</v>
+      <c r="H35" s="70">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <f t="shared" ref="G36:G44" si="9">(E36-F36)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
@@ -1930,7 +1930,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="45"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -1946,7 +1946,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="45"/>
+      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
@@ -1962,7 +1962,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="45"/>
+      <c r="H39" s="71"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
@@ -1978,7 +1978,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H40" s="45"/>
+      <c r="H40" s="71"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
@@ -1994,7 +1994,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="45"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
@@ -2010,7 +2010,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -2026,38 +2026,31 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H43" s="45"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>45291</v>
       </c>
-      <c r="E44" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="9"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H44" s="45"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="25">
         <f>SUM(G35:G44)</f>
-        <v>0.83333333333333259</v>
-      </c>
-      <c r="H45" s="48"/>
+        <v>0.74999999999999933</v>
+      </c>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
@@ -2066,51 +2059,30 @@
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="20">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F46" s="20">
-        <v>1</v>
-      </c>
-      <c r="G46" s="21">
-        <f t="shared" ref="G46" si="10">(E46-F46)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H46" s="44">
-        <v>6</v>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="70">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>45298</v>
       </c>
-      <c r="E47" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" ref="G47:G48" si="11">(E47-F47)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H47" s="45"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="71"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>45304</v>
       </c>
-      <c r="E48" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="11"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H48" s="45"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="71"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
@@ -2119,7 +2091,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="45"/>
+      <c r="H49" s="71"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
@@ -2128,105 +2100,105 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="45"/>
+      <c r="H50" s="71"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>45312</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="45"/>
+      <c r="H51" s="71"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>45318</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="45"/>
+      <c r="H52" s="71"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>45319</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="45"/>
+      <c r="H53" s="71"/>
     </row>
     <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="31">
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="29">
         <f>SUM(G46:G53)</f>
-        <v>0.24999999999999978</v>
-      </c>
-      <c r="H54" s="51"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="75"/>
     </row>
     <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30" t="s">
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="53">
+      <c r="H55" s="45">
         <f>SUM(H2:H54)</f>
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="67"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
     </row>
     <row r="57" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="70"/>
-      <c r="B57" s="36" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="73"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="74"/>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="65"/>
+      <c r="B58" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2235,14 +2207,14 @@
       <c r="D58" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="69"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="74"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="65"/>
+      <c r="B59" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2251,14 +2223,14 @@
       <c r="D59" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="69"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="60"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="74"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2267,131 +2239,131 @@
       <c r="D60" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="69"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="75"/>
-      <c r="B61" s="37" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="78"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="67"/>
     </row>
     <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="39"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="27"/>
     </row>
     <row r="63" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="40" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="55"/>
+      <c r="H63" s="47"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="H64" s="54"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="15"/>
-      <c r="H65" s="54"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="15"/>
-      <c r="H66" s="54"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="15"/>
-      <c r="H67" s="54"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="33"/>
-      <c r="B68" s="43" t="s">
+      <c r="A68" s="31"/>
+      <c r="B68" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H68" s="56"/>
+      <c r="H68" s="48"/>
     </row>
     <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="39"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
-      <c r="D69" s="40"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
     </row>
     <row r="70" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="26"/>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="51" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="55"/>
+      <c r="H70" s="47"/>
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2400,11 +2372,11 @@
       <c r="D71" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H71" s="54"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="50" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2413,11 +2385,11 @@
       <c r="D72" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="54"/>
+      <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="50" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2426,11 +2398,11 @@
       <c r="D73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H73" s="54"/>
+      <c r="H73" s="46"/>
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2439,11 +2411,11 @@
       <c r="D74" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H74" s="54"/>
+      <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2452,11 +2424,11 @@
       <c r="D75" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H75" s="54"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2465,11 +2437,11 @@
       <c r="D76" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H76" s="54"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2478,20 +2450,20 @@
       <c r="D77" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H77" s="54"/>
+      <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="33"/>
-      <c r="B78" s="61" t="s">
+      <c r="A78" s="31"/>
+      <c r="B78" s="53" t="s">
         <v>43</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="56"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
@@ -2504,20 +2476,20 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="H46:H54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="H26:H34"/>
-    <mergeCell ref="A45:F45"/>
     <mergeCell ref="H35:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C5309-9B36-4A8B-876D-9FF5FCE79753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736022B-8956-48A9-8DFD-919698FE5E50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>Тема</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Python Desktop</t>
   </si>
   <si>
-    <t>JavaScript Core + TypeScript Core</t>
-  </si>
-  <si>
-    <t>JavaScript Awesome + TypeScript Awesome</t>
-  </si>
-  <si>
     <t>React Base</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>MongoDb</t>
   </si>
   <si>
-    <t>Python Desktop + JavaScript Core + TypeScript Core</t>
-  </si>
-  <si>
     <t>FastApi</t>
   </si>
   <si>
@@ -217,6 +208,18 @@
   </si>
   <si>
     <t>routing, controller…</t>
+  </si>
+  <si>
+    <t>JavaScript Core</t>
+  </si>
+  <si>
+    <t>JavaScript Awesome</t>
+  </si>
+  <si>
+    <t>Python Desktop + TypeScript Core</t>
+  </si>
+  <si>
+    <t>Python Desktop + TypeScript Awesome</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -672,6 +675,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -679,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -816,12 +832,24 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,24 +859,14 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1132,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1214,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="74">
         <v>9</v>
       </c>
     </row>
@@ -1223,7 +1241,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="71"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
@@ -1248,22 +1266,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="71"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="23">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -1288,7 +1306,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="74">
         <v>26.5</v>
       </c>
     </row>
@@ -1315,7 +1333,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1340,7 +1358,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="71"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1365,7 +1383,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
@@ -1390,7 +1408,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
@@ -1415,7 +1433,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="71"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
@@ -1440,7 +1458,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="71"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -1465,7 +1483,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -1490,7 +1508,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="75"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -1515,22 +1533,22 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="71"/>
+      <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="25">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
@@ -1555,7 +1573,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="74">
         <v>9.5</v>
       </c>
     </row>
@@ -1582,7 +1600,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="71"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
@@ -1607,7 +1625,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
@@ -1632,25 +1650,25 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="25">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="79">
         <v>45213</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1672,22 +1690,22 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="74">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="80">
         <v>45227</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3">
         <v>1.0833333333333333</v>
@@ -1699,12 +1717,21 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="71"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>45228</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E24" s="3">
         <v>1.0833333333333333</v>
       </c>
@@ -1715,22 +1742,22 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="71"/>
+      <c r="H24" s="75"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="24">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="75"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
@@ -1764,7 +1791,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="71"/>
+      <c r="H27" s="75"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -1780,7 +1807,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="75"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -1796,7 +1823,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="71"/>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
@@ -1812,7 +1839,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="71"/>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -1828,7 +1855,7 @@
         <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="71"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -1844,7 +1871,7 @@
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="71"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
@@ -1862,22 +1889,22 @@
         <f t="shared" ref="G33" si="7">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="71"/>
+      <c r="H33" s="75"/>
     </row>
     <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="25">
         <f>SUM(G26:G33)</f>
         <v>0.66666666666666607</v>
       </c>
-      <c r="H34" s="72"/>
+      <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
@@ -1896,7 +1923,7 @@
         <f t="shared" ref="G35" si="8">(E35-F35)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="74">
         <v>18</v>
       </c>
     </row>
@@ -1911,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" ref="G36:G44" si="9">(E36-F36)</f>
+        <f t="shared" ref="G36:G43" si="9">(E36-F36)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="71"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
@@ -1930,7 +1957,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="71"/>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -1946,7 +1973,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="71"/>
+      <c r="H38" s="75"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
@@ -1962,7 +1989,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="71"/>
+      <c r="H39" s="75"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
@@ -1978,7 +2005,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H40" s="71"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
@@ -1994,7 +2021,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="71"/>
+      <c r="H41" s="75"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
@@ -2010,7 +2037,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="71"/>
+      <c r="H42" s="75"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -2026,7 +2053,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H43" s="71"/>
+      <c r="H43" s="75"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
@@ -2035,22 +2062,22 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="71"/>
+      <c r="H44" s="75"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="25">
         <f>SUM(G35:G44)</f>
         <v>0.74999999999999933</v>
       </c>
-      <c r="H45" s="72"/>
+      <c r="H45" s="76"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
@@ -2062,7 +2089,7 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="70">
+      <c r="H46" s="74">
         <v>0</v>
       </c>
     </row>
@@ -2073,7 +2100,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="71"/>
+      <c r="H47" s="75"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
@@ -2082,7 +2109,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="71"/>
+      <c r="H48" s="75"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
@@ -2091,7 +2118,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="71"/>
+      <c r="H49" s="75"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
@@ -2100,7 +2127,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="71"/>
+      <c r="H50" s="75"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
@@ -2112,7 +2139,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="71"/>
+      <c r="H51" s="75"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
@@ -2124,7 +2151,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="71"/>
+      <c r="H52" s="75"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
@@ -2136,32 +2163,32 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="71"/>
+      <c r="H53" s="75"/>
     </row>
     <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
       <c r="G54" s="29">
         <f>SUM(G46:G53)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="75"/>
+      <c r="H54" s="77"/>
     </row>
     <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
       <c r="G55" s="28" t="s">
         <v>6</v>
       </c>
@@ -2183,13 +2210,13 @@
     <row r="57" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="61"/>
       <c r="B57" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="62"/>
       <c r="F57" s="62"/>
@@ -2199,13 +2226,13 @@
     <row r="58" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="65"/>
       <c r="B58" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
@@ -2218,10 +2245,10 @@
         <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
@@ -2234,10 +2261,10 @@
         <v>31</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
@@ -2247,13 +2274,13 @@
     <row r="61" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="42"/>
       <c r="B61" s="35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E61" s="43"/>
       <c r="F61" s="43"/>
@@ -2272,13 +2299,13 @@
     <row r="63" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H63" s="47"/>
     </row>
@@ -2288,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D64" s="15"/>
       <c r="H64" s="46"/>
@@ -2299,7 +2326,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D65" s="15"/>
       <c r="H65" s="46"/>
@@ -2310,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D66" s="15"/>
       <c r="H66" s="46"/>
@@ -2321,7 +2348,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D67" s="15"/>
       <c r="H67" s="46"/>
@@ -2329,13 +2356,13 @@
     <row r="68" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="31"/>
       <c r="B68" s="41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C68" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H68" s="48"/>
     </row>
@@ -2354,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>21</v>
@@ -2364,104 +2391,104 @@
     <row r="71" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
       <c r="B72" s="50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H73" s="46"/>
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
       <c r="B74" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
       <c r="B76" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="31"/>
       <c r="B78" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="D78" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H78" s="48"/>
     </row>
@@ -2476,12 +2503,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
@@ -2491,6 +2512,12 @@
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="H26:H34"/>
     <mergeCell ref="H35:H45"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736022B-8956-48A9-8DFD-919698FE5E50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F2814-058A-4CE4-AB9B-09A747B667FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>Тема</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Python Desktop + TypeScript Awesome</t>
+  </si>
+  <si>
+    <t>crud</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>que</t>
   </si>
 </sst>
 </file>
@@ -832,41 +844,41 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1150,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1226,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="72">
         <v>9</v>
       </c>
     </row>
@@ -1241,7 +1253,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
@@ -1266,7 +1278,7 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
@@ -1281,7 +1293,7 @@
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="76"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -1306,7 +1318,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="72">
         <v>26.5</v>
       </c>
     </row>
@@ -1333,7 +1345,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="75"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1358,7 +1370,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1383,7 +1395,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="75"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
@@ -1408,7 +1420,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
@@ -1433,7 +1445,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="75"/>
+      <c r="H11" s="73"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
@@ -1458,7 +1470,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="75"/>
+      <c r="H12" s="73"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -1483,7 +1495,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="75"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -1508,7 +1520,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="75"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -1533,7 +1545,7 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="75"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
@@ -1548,7 +1560,7 @@
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="76"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
@@ -1573,7 +1585,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="72">
         <v>9.5</v>
       </c>
     </row>
@@ -1600,7 +1612,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="75"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
@@ -1625,7 +1637,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="75"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
@@ -1650,7 +1662,7 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="75"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
@@ -1665,10 +1677,10 @@
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="76"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="79">
+      <c r="A22" s="68">
         <v>45213</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1690,12 +1702,12 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="72">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="80">
+      <c r="A23" s="69">
         <v>45227</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1717,7 +1729,7 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="75"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -1742,17 +1754,17 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="75"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="24">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
@@ -1791,7 +1803,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="75"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -1807,7 +1819,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="75"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -1823,7 +1835,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="75"/>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
@@ -1839,7 +1851,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -1855,7 +1867,7 @@
         <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
@@ -1871,7 +1883,7 @@
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
@@ -1889,7 +1901,7 @@
         <f t="shared" ref="G33" si="7">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="75"/>
+      <c r="H33" s="73"/>
     </row>
     <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="70" t="s">
@@ -1904,7 +1916,7 @@
         <f>SUM(G26:G33)</f>
         <v>0.66666666666666607</v>
       </c>
-      <c r="H34" s="76"/>
+      <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
@@ -1923,7 +1935,7 @@
         <f t="shared" ref="G35" si="8">(E35-F35)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="74">
+      <c r="H35" s="72">
         <v>18</v>
       </c>
     </row>
@@ -1941,7 +1953,7 @@
         <f t="shared" ref="G36:G43" si="9">(E36-F36)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="73"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
@@ -1957,7 +1969,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="73"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
@@ -1973,7 +1985,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="75"/>
+      <c r="H38" s="73"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
@@ -1989,7 +2001,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="75"/>
+      <c r="H39" s="73"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
@@ -2005,7 +2017,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H40" s="75"/>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
@@ -2021,7 +2033,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="75"/>
+      <c r="H41" s="73"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
@@ -2037,7 +2049,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="75"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -2053,7 +2065,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H43" s="75"/>
+      <c r="H43" s="73"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
@@ -2062,7 +2074,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="75"/>
+      <c r="H44" s="73"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
@@ -2077,7 +2089,7 @@
         <f>SUM(G35:G44)</f>
         <v>0.74999999999999933</v>
       </c>
-      <c r="H45" s="76"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
@@ -2089,7 +2101,7 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="74">
+      <c r="H46" s="72">
         <v>0</v>
       </c>
     </row>
@@ -2100,7 +2112,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="75"/>
+      <c r="H47" s="73"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
@@ -2109,7 +2121,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="75"/>
+      <c r="H48" s="73"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
@@ -2118,7 +2130,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="75"/>
+      <c r="H49" s="73"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
@@ -2127,7 +2139,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="75"/>
+      <c r="H50" s="73"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
@@ -2139,7 +2151,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="75"/>
+      <c r="H51" s="73"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
@@ -2151,7 +2163,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="75"/>
+      <c r="H52" s="73"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
@@ -2163,17 +2175,17 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="75"/>
+      <c r="H53" s="73"/>
     </row>
     <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
       <c r="G54" s="29">
         <f>SUM(G46:G53)</f>
         <v>0</v>
@@ -2181,14 +2193,14 @@
       <c r="H54" s="77"/>
     </row>
     <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
       <c r="G55" s="28" t="s">
         <v>6</v>
       </c>
@@ -2317,7 +2329,9 @@
       <c r="C64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -2328,7 +2342,9 @@
       <c r="C65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -2339,7 +2355,9 @@
       <c r="C66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -2350,7 +2368,9 @@
       <c r="C67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2503,6 +2523,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
@@ -2512,12 +2538,6 @@
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="H26:H34"/>
     <mergeCell ref="H35:H45"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F2814-058A-4CE4-AB9B-09A747B667FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B4E90-16CB-404A-BA42-B81A643DAD20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -445,19 +445,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -674,19 +661,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -716,79 +690,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,21 +768,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,60 +794,57 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1175,63 +1143,63 @@
     <col min="5" max="5" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="14" customWidth="1"/>
     <col min="9" max="16384" width="36.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>45114</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>1.1319444444444444</v>
       </c>
-      <c r="F2" s="20">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="69">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>45122</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1253,10 +1221,10 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="73"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>45138</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1278,52 +1246,52 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="73"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="23">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="20">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="74"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>45139</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>1.0930555555555554</v>
       </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="69">
         <v>26.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>45140</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1345,10 +1313,10 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>45141</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1370,10 +1338,10 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="73"/>
+      <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>45142</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1395,10 +1363,10 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="73"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>45145</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1420,10 +1388,10 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>45146</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1445,10 +1413,10 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="73"/>
+      <c r="H11" s="70"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>45147</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1470,10 +1438,10 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="73"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="13">
         <v>45148</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1495,10 +1463,10 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="73"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="13">
         <v>45157</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1520,10 +1488,10 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="13">
         <v>45158</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1545,52 +1513,52 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="73"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="25">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="22">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>45171</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <v>1.0902777777777777</v>
       </c>
-      <c r="F17" s="20">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21">
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="69">
         <v>9.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="13">
         <v>45172</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1612,10 +1580,10 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="73"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="13">
         <v>45185</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1637,10 +1605,10 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="13">
         <v>45193</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1662,52 +1630,52 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="73"/>
+      <c r="H20" s="70"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="25">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="22">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="65">
         <v>45213</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F22" s="20">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21">
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="69">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="69">
+      <c r="A23" s="66">
         <v>45227</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1729,10 +1697,10 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="66">
         <v>45228</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1754,44 +1722,53 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="73"/>
+      <c r="H24" s="70"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="24">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="21">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="77"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>45234</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="66">
+        <v>45235</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" ref="G26:G30" si="5">(E26-F26)</f>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" ref="G26:G29" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="78">
-        <v>16</v>
+      <c r="H26" s="70">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>45235</v>
+      <c r="A27" s="10">
+        <v>45241</v>
       </c>
       <c r="E27" s="3">
         <v>1.0833333333333333</v>
@@ -1803,11 +1780,11 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="73"/>
+      <c r="H27" s="70"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>45241</v>
+      <c r="A28" s="10">
+        <v>45242</v>
       </c>
       <c r="E28" s="3">
         <v>1.0833333333333333</v>
@@ -1819,11 +1796,11 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="70"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>45242</v>
+      <c r="A29" s="10">
+        <v>45248</v>
       </c>
       <c r="E29" s="3">
         <v>1.0833333333333333</v>
@@ -1835,11 +1812,11 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="73"/>
+      <c r="H29" s="70"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>45248</v>
+      <c r="A30" s="10">
+        <v>45249</v>
       </c>
       <c r="E30" s="3">
         <v>1.0833333333333333</v>
@@ -1848,49 +1825,51 @@
         <v>1</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G30" si="6">(E30-F30)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="73"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>45249</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="22">
+        <f>SUM(G26:G30)</f>
+        <v>0.4166666666666663</v>
+      </c>
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>45262</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" ref="G31:G32" si="6">(E31-F31)</f>
+      <c r="F32" s="17">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" ref="G32" si="7">(E32-F32)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="73"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>45255</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H32" s="73"/>
+      <c r="H32" s="69">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>45256</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="10">
+        <v>45263</v>
+      </c>
       <c r="E33" s="3">
         <v>1.0833333333333333</v>
       </c>
@@ -1898,50 +1877,46 @@
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33" si="7">(E33-F33)</f>
+        <f t="shared" ref="G33:G39" si="8">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="73"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="25">
-        <f>SUM(G26:G33)</f>
-        <v>0.66666666666666607</v>
-      </c>
-      <c r="H34" s="74"/>
+      <c r="H33" s="70"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>45269</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
-        <v>45262</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20">
+      <c r="A35" s="10">
+        <v>45270</v>
+      </c>
+      <c r="E35" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F35" s="20">
-        <v>1</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" ref="G35" si="8">(E35-F35)</f>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="72">
-        <v>18</v>
-      </c>
+      <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>45263</v>
+      <c r="A36" s="10">
+        <v>45276</v>
       </c>
       <c r="E36" s="3">
         <v>1.0833333333333333</v>
@@ -1950,14 +1925,14 @@
         <v>1</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" ref="G36:G43" si="9">(E36-F36)</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="73"/>
+      <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>45269</v>
+      <c r="A37" s="10">
+        <v>45277</v>
       </c>
       <c r="E37" s="3">
         <v>1.0833333333333333</v>
@@ -1966,14 +1941,14 @@
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="73"/>
+      <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>45270</v>
+      <c r="A38" s="10">
+        <v>45283</v>
       </c>
       <c r="E38" s="3">
         <v>1.0833333333333333</v>
@@ -1982,14 +1957,14 @@
         <v>1</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="73"/>
+      <c r="H38" s="70"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>45276</v>
+      <c r="A39" s="10">
+        <v>45284</v>
       </c>
       <c r="E39" s="3">
         <v>1.0833333333333333</v>
@@ -1998,31 +1973,33 @@
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="73"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>45277</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="9"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H40" s="73"/>
+      <c r="H39" s="70"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="22">
+        <f>SUM(G32:G39)</f>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="H40" s="71"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>45283</v>
-      </c>
+      <c r="A41" s="23">
+        <v>45297</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="3">
         <v>1.0833333333333333</v>
       </c>
@@ -2030,14 +2007,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G41:G44" si="9">(E41-F41)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="73"/>
+      <c r="H41" s="69">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>45284</v>
+      <c r="A42" s="10">
+        <v>45298</v>
       </c>
       <c r="E42" s="3">
         <v>1.0833333333333333</v>
@@ -2049,11 +2028,11 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="73"/>
+      <c r="H42" s="70"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>45290</v>
+      <c r="A43" s="10">
+        <v>45304</v>
       </c>
       <c r="E43" s="3">
         <v>1.0833333333333333</v>
@@ -2065,479 +2044,421 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H43" s="73"/>
+      <c r="H43" s="70"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
-        <v>45291</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="73"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="25">
-        <f>SUM(G35:G44)</f>
-        <v>0.74999999999999933</v>
-      </c>
-      <c r="H45" s="74"/>
+      <c r="A44" s="10">
+        <v>45305</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H44" s="70"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>45311</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="70"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="26">
-        <v>45297</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="72">
-        <v>0</v>
-      </c>
+      <c r="A46" s="10">
+        <v>45312</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="70"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>45298</v>
-      </c>
+      <c r="A47" s="10">
+        <v>45318</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="73"/>
+      <c r="H47" s="70"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>45304</v>
-      </c>
+      <c r="A48" s="10">
+        <v>45319</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="73"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
-        <v>45305</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="73"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>45311</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="73"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
-        <v>45312</v>
-      </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="73"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
-        <v>45318</v>
-      </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="73"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>45319</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="73"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="75" t="s">
+      <c r="H48" s="70"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="29">
-        <f>SUM(G46:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="77"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="79" t="s">
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="26">
+        <f>SUM(G41:G48)</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="H49" s="74"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="28" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="45">
-        <f>SUM(H2:H54)</f>
+      <c r="H50" s="42">
+        <f>SUM(H2:H49)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="55"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="58"/>
-    </row>
-    <row r="57" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="61"/>
-      <c r="B57" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="19" t="s">
+    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="55"/>
+    </row>
+    <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="62"/>
+      <c r="B53" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="65"/>
-      <c r="B58" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="57"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="62"/>
+      <c r="B54" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="60"/>
+      <c r="D54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="57"/>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="62"/>
+      <c r="B55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="39"/>
+      <c r="B56" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="34"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="65"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="60"/>
+        <v>42</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="43"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="65"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="60"/>
-    </row>
-    <row r="61" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="42"/>
-      <c r="B61" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="67"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="37"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" s="47"/>
-    </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
-      <c r="B64" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D60" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="43"/>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-      <c r="B65" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D61" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="43"/>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" s="46"/>
+      <c r="D62" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="43"/>
+    </row>
+    <row r="63" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="28"/>
+      <c r="B63" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="45"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="34"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="23"/>
+      <c r="B65" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="44"/>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="36" t="s">
-        <v>30</v>
+      <c r="A66" s="10"/>
+      <c r="B66" s="47" t="s">
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" s="46"/>
+        <v>43</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
-      <c r="B67" s="36" t="s">
-        <v>29</v>
+      <c r="A67" s="10"/>
+      <c r="B67" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="46"/>
-    </row>
-    <row r="68" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="31"/>
-      <c r="B68" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H68" s="48"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="37"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-    </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
-      <c r="B70" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="47"/>
+      <c r="D67" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="43"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="43"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="43"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="43"/>
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
-      <c r="B71" s="50" t="s">
-        <v>55</v>
+      <c r="A71" s="10"/>
+      <c r="B71" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="46"/>
+      <c r="D71" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="43"/>
     </row>
     <row r="72" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
-      <c r="B72" s="50" t="s">
-        <v>37</v>
+      <c r="A72" s="10"/>
+      <c r="B72" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="46"/>
-    </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
+      <c r="H72" s="43"/>
+    </row>
+    <row r="73" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="28"/>
       <c r="B73" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="46"/>
-    </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
-      <c r="B74" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
-      <c r="B75" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" s="46"/>
-    </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
-      <c r="B76" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" s="46"/>
-    </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
-      <c r="B77" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" s="46"/>
-    </row>
-    <row r="78" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="31"/>
-      <c r="B78" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="48"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="H73" s="45"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="H46:H54"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="H41:H49"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H34"/>
-    <mergeCell ref="H35:H45"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="H32:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B4E90-16CB-404A-BA42-B81A643DAD20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39E64D-7E39-4D3C-A2E4-F0CA5A805CE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,12 +817,24 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,19 +844,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1194,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="73">
         <v>9</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="70"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
@@ -1246,22 +1246,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="20">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="71"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
@@ -1286,7 +1286,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="73">
         <v>26.5</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
@@ -1338,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -1363,7 +1363,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -1388,7 +1388,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="70"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -1413,7 +1413,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="70"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -1438,7 +1438,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="70"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
@@ -1463,7 +1463,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="70"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -1488,7 +1488,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -1513,22 +1513,22 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="22">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="71"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -1553,7 +1553,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="73">
         <v>9.5</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -1605,7 +1605,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
@@ -1630,22 +1630,22 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="22">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="65">
@@ -1670,7 +1670,7 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="73">
         <v>6</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="66">
@@ -1722,22 +1722,22 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="21">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="74"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="66">
@@ -1762,7 +1762,7 @@
         <f t="shared" ref="G26:G29" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="74">
         <v>10</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="70"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -1796,7 +1796,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1812,7 +1812,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -1828,22 +1828,22 @@
         <f t="shared" ref="G30" si="6">(E30-F30)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="22">
         <f>SUM(G26:G30)</f>
         <v>0.4166666666666663</v>
       </c>
-      <c r="H31" s="71"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
@@ -1862,7 +1862,7 @@
         <f t="shared" ref="G32" si="7">(E32-F32)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="73">
         <v>16</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <f t="shared" ref="G33:G39" si="8">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="70"/>
+      <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -1896,7 +1896,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H34" s="70"/>
+      <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -1912,7 +1912,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="70"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1928,7 +1928,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="70"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -1944,7 +1944,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="70"/>
+      <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -1960,7 +1960,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="70"/>
+      <c r="H38" s="74"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -1976,22 +1976,22 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="70"/>
+      <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
       <c r="G40" s="22">
         <f>SUM(G32:G39)</f>
         <v>0.66666666666666607</v>
       </c>
-      <c r="H40" s="71"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
@@ -2010,7 +2010,7 @@
         <f t="shared" ref="G41:G44" si="9">(E41-F41)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="73">
         <v>8</v>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="70"/>
+      <c r="H42" s="74"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -2044,7 +2044,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H43" s="70"/>
+      <c r="H43" s="74"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -2060,7 +2060,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H44" s="70"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -2069,7 +2069,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="70"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -2081,7 +2081,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="70"/>
+      <c r="H46" s="74"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -2093,7 +2093,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="70"/>
+      <c r="H47" s="74"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -2105,32 +2105,32 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="70"/>
+      <c r="H48" s="74"/>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
       <c r="G49" s="26">
         <f>SUM(G41:G48)</f>
         <v>0.33333333333333304</v>
       </c>
-      <c r="H49" s="74"/>
+      <c r="H49" s="76"/>
     </row>
     <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
       <c r="G50" s="25" t="s">
         <v>6</v>
       </c>
@@ -2172,21 +2172,21 @@
       <c r="G53" s="56"/>
       <c r="H53" s="57"/>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="62"/>
-      <c r="B54" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="39"/>
+      <c r="B54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
+      <c r="D54" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="62"/>
@@ -2204,21 +2204,21 @@
       <c r="G55" s="56"/>
       <c r="H55" s="57"/>
     </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="39"/>
-      <c r="B56" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="19" t="s">
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="62"/>
+      <c r="B56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="64"/>
+      <c r="D56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="34"/>
@@ -2444,12 +2444,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
@@ -2459,6 +2453,12 @@
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="H26:H31"/>
     <mergeCell ref="H32:H40"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39E64D-7E39-4D3C-A2E4-F0CA5A805CE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD4D38-12A6-4BBD-AF45-FD40DE329CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>Тема</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>85 часов</t>
-  </si>
-  <si>
     <t>Python Core</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>FastApi Тестирование</t>
   </si>
   <si>
-    <t>React Redux</t>
-  </si>
-  <si>
-    <t>React Hooks</t>
-  </si>
-  <si>
     <t>июль</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Graphana</t>
   </si>
   <si>
-    <t>Ansible</t>
-  </si>
-  <si>
     <t>GraphQl</t>
   </si>
   <si>
@@ -165,30 +153,9 @@
     <t>React</t>
   </si>
   <si>
-    <t>React Additions</t>
-  </si>
-  <si>
-    <t>Material UI, Bootstrap, Tailwind</t>
-  </si>
-  <si>
-    <t>React Design</t>
-  </si>
-  <si>
     <t>cra, jsx, react-components, react-router-dom</t>
   </si>
   <si>
-    <t>react-redux-base, react-redux-complex</t>
-  </si>
-  <si>
-    <t>useState, useEffect, useRef, useCallback, customHooks</t>
-  </si>
-  <si>
-    <t>loader, pagination, errors, video-player, charts</t>
-  </si>
-  <si>
-    <t>Kafka</t>
-  </si>
-  <si>
     <t>RabbitMQ</t>
   </si>
   <si>
@@ -232,6 +199,21 @@
   </si>
   <si>
     <t>que</t>
+  </si>
+  <si>
+    <t>React Design, React Additions</t>
+  </si>
+  <si>
+    <t>Material UI, Bootstrap, Tailwind, loader, pagination, errors, video-player, charts</t>
+  </si>
+  <si>
+    <t>React Redux, React Hooks</t>
+  </si>
+  <si>
+    <t>react-redux-base, react-redux-complex, useState, useEffect, useRef, useCallback, customHooks</t>
+  </si>
+  <si>
+    <t>83 часов</t>
   </si>
 </sst>
 </file>
@@ -681,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -726,26 +708,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,12 +760,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,15 +770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1128,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1158,17 +1115,17 @@
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1182,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="17">
         <v>1.1319444444444444</v>
@@ -1194,7 +1151,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="64">
         <v>9</v>
       </c>
     </row>
@@ -1209,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>1.0451388888888888</v>
@@ -1221,7 +1178,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="74"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
@@ -1234,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>1.0993055555555555</v>
@@ -1246,22 +1203,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="74"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="20">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
@@ -1274,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="17">
         <v>1.0930555555555554</v>
@@ -1286,7 +1243,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="64">
         <v>26.5</v>
       </c>
     </row>
@@ -1295,13 +1252,13 @@
         <v>45140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
         <v>1.0986111111111112</v>
@@ -1313,20 +1270,20 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>45141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3">
         <v>1.0909722222222222</v>
@@ -1338,20 +1295,20 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>45142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3">
         <v>1.0916666666666668</v>
@@ -1363,20 +1320,20 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>45145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3">
         <v>1.086111111111111</v>
@@ -1388,20 +1345,20 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>45146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>1.0972222222222223</v>
@@ -1413,20 +1370,20 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>45147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3">
         <v>1.1104166666666666</v>
@@ -1438,20 +1395,20 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>45148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>1.0465277777777777</v>
@@ -1463,20 +1420,20 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="74"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>45157</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>1.0840277777777778</v>
@@ -1488,20 +1445,20 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>45158</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3">
         <v>1.0902777777777777</v>
@@ -1513,35 +1470,35 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="22">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>45171</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="17">
         <v>1.0902777777777777</v>
@@ -1553,7 +1510,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="64">
         <v>9.5</v>
       </c>
     </row>
@@ -1562,13 +1519,13 @@
         <v>45172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3">
         <v>1.0902777777777777</v>
@@ -1580,20 +1537,20 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="74"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>45185</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3">
         <v>1.0902777777777777</v>
@@ -1605,20 +1562,20 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="74"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>45193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3">
         <v>1.0833333333333333</v>
@@ -1630,35 +1587,35 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="74"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="A21" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="22">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="75"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="65">
+      <c r="A22" s="56">
         <v>45213</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="17">
         <v>1.0833333333333333</v>
@@ -1670,22 +1627,22 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="64">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="66">
+      <c r="A23" s="57">
         <v>45227</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3">
         <v>1.0833333333333333</v>
@@ -1697,20 +1654,20 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="74"/>
+      <c r="H23" s="65"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="66">
+      <c r="A24" s="57">
         <v>45228</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3">
         <v>1.0833333333333333</v>
@@ -1722,35 +1679,35 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="74"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
+      <c r="A25" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="21">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="76"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="66">
+      <c r="A26" s="57">
         <v>45235</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3">
         <v>1.0833333333333333</v>
@@ -1762,13 +1719,22 @@
         <f t="shared" ref="G26:G29" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="65">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="57">
         <v>45241</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E27" s="3">
         <v>1.0833333333333333</v>
@@ -1780,11 +1746,20 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>45242</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="3">
         <v>1.0833333333333333</v>
@@ -1796,7 +1771,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1812,7 +1787,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -1828,22 +1803,22 @@
         <f t="shared" ref="G30" si="6">(E30-F30)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
+      <c r="A31" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="22">
         <f>SUM(G26:G30)</f>
         <v>0.4166666666666663</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
@@ -1862,7 +1837,7 @@
         <f t="shared" ref="G32" si="7">(E32-F32)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="64">
         <v>16</v>
       </c>
     </row>
@@ -1880,7 +1855,7 @@
         <f t="shared" ref="G33:G39" si="8">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="74"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -1896,7 +1871,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H34" s="74"/>
+      <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -1912,7 +1887,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="74"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1928,7 +1903,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="74"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -1944,7 +1919,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="74"/>
+      <c r="H37" s="65"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -1960,7 +1935,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="74"/>
+      <c r="H38" s="65"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -1976,22 +1951,22 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="74"/>
+      <c r="H39" s="65"/>
     </row>
     <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
+      <c r="A40" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="22">
         <f>SUM(G32:G39)</f>
         <v>0.66666666666666607</v>
       </c>
-      <c r="H40" s="75"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
@@ -2010,8 +1985,8 @@
         <f t="shared" ref="G41:G44" si="9">(E41-F41)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="73">
-        <v>8</v>
+      <c r="H41" s="64">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2028,7 +2003,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="74"/>
+      <c r="H42" s="65"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -2044,23 +2019,16 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H43" s="74"/>
+      <c r="H43" s="65"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>45305</v>
       </c>
-      <c r="E44" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="9"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H44" s="74"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="65"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -2069,378 +2037,279 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="74"/>
+      <c r="H45" s="65"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>45312</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="74"/>
+      <c r="H46" s="65"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45318</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="74"/>
+      <c r="H47" s="65"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>45319</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="74"/>
+      <c r="H48" s="65"/>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
+      <c r="A49" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
       <c r="G49" s="26">
         <f>SUM(G41:G48)</f>
-        <v>0.33333333333333304</v>
-      </c>
-      <c r="H49" s="76"/>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="42">
+        <v>62</v>
+      </c>
+      <c r="H50" s="38">
         <f>SUM(H2:H49)</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="55"/>
-    </row>
-    <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="61"/>
-    </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="62"/>
-      <c r="B53" s="30" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+    </row>
+    <row r="52" spans="1:8" s="16" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="52"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55"/>
+    </row>
+    <row r="53" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="23"/>
+      <c r="B53" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="40"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="39"/>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="39"/>
+    </row>
+    <row r="58" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="28"/>
+      <c r="B58" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="57"/>
-    </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="39"/>
-      <c r="B54" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="64"/>
-    </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="62"/>
-      <c r="B55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57"/>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="62"/>
-      <c r="B56" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="57"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="44"/>
-    </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" s="43"/>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" s="43"/>
+      <c r="H58" s="41"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="33"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="40"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
-      <c r="B61" s="33" t="s">
-        <v>30</v>
+      <c r="B61" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="43"/>
+        <v>45</v>
+      </c>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
-      <c r="B62" s="33" t="s">
-        <v>29</v>
+      <c r="B62" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="43"/>
-    </row>
-    <row r="63" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="28"/>
-      <c r="B63" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="23"/>
-      <c r="B65" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
+      <c r="B63" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="44"/>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="43"/>
-    </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="47" t="s">
+      <c r="C63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="28"/>
+      <c r="B66" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="43"/>
-    </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="43"/>
-    </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" s="43"/>
-    </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
-      <c r="B70" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="43"/>
-    </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="47" t="s">
+      <c r="C66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="43"/>
-    </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
-      <c r="B72" s="47" t="s">
+      <c r="D66" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="43"/>
-    </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="45"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="H66" s="41"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD4D38-12A6-4BBD-AF45-FD40DE329CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34970C25-8BF7-4F5F-8E0B-10C105781365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -656,6 +656,32 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -663,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -713,9 +739,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -774,34 +797,46 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1159,7 @@
       <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1151,7 +1186,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="59">
         <v>9</v>
       </c>
     </row>
@@ -1178,7 +1213,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="65"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
@@ -1203,22 +1238,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="20">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
@@ -1243,7 +1278,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="59">
         <v>26.5</v>
       </c>
     </row>
@@ -1270,7 +1305,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
@@ -1295,7 +1330,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -1320,7 +1355,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -1345,7 +1380,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -1370,7 +1405,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="65"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -1395,7 +1430,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="65"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
@@ -1420,7 +1455,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="65"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -1445,7 +1480,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -1470,22 +1505,22 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="22">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -1510,7 +1545,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="59">
         <v>9.5</v>
       </c>
     </row>
@@ -1537,7 +1572,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -1562,7 +1597,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
@@ -1587,25 +1622,25 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="22">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="56">
+      <c r="A22" s="55">
         <v>45213</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -1627,12 +1662,12 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="59">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+      <c r="A23" s="56">
         <v>45227</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1654,10 +1689,10 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="65"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="57">
+      <c r="A24" s="56">
         <v>45228</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1679,7 +1714,7 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="62" t="s">
@@ -1694,10 +1729,10 @@
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="57">
+      <c r="A26" s="56">
         <v>45235</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -1719,12 +1754,12 @@
         <f t="shared" ref="G26:G29" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="65">
-        <v>10</v>
+      <c r="H26" s="60">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="57">
+      <c r="A27" s="56">
         <v>45241</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -1746,19 +1781,19 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
+      <c r="A28" s="68">
         <v>45242</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="3">
@@ -1771,11 +1806,20 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="65"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="56">
         <v>45248</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="E29" s="3">
         <v>1.0833333333333333</v>
@@ -1787,63 +1831,64 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="65"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>45249</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="22">
+        <f>SUM(G26:G29)</f>
+        <v>0.33333333333333304</v>
+      </c>
+      <c r="H30" s="61"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>45262</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" ref="G30" si="6">(E30-F30)</f>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" ref="G31" si="6">(E31-F31)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="22">
-        <f>SUM(G26:G30)</f>
-        <v>0.4166666666666663</v>
-      </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="59">
+        <f>24</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>45262</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17">
+      <c r="A32" s="10">
+        <v>45263</v>
+      </c>
+      <c r="E32" s="3">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F32" s="17">
-        <v>1</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" ref="G32" si="7">(E32-F32)</f>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" ref="G32:G40" si="7">(E32-F32)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H32" s="64">
-        <v>16</v>
-      </c>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>45263</v>
+        <v>45265</v>
       </c>
       <c r="E33" s="3">
         <v>1.0833333333333333</v>
@@ -1852,14 +1897,14 @@
         <v>1</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33:G39" si="8">(E33-F33)</f>
+        <f t="shared" ref="G33:G34" si="8">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>45269</v>
+        <v>45267</v>
       </c>
       <c r="E34" s="3">
         <v>1.0833333333333333</v>
@@ -1871,11 +1916,11 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <v>45270</v>
+        <v>45269</v>
       </c>
       <c r="E35" s="3">
         <v>1.0833333333333333</v>
@@ -1884,14 +1929,14 @@
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <v>45276</v>
+        <v>45270</v>
       </c>
       <c r="E36" s="3">
         <v>1.0833333333333333</v>
@@ -1900,14 +1945,14 @@
         <v>1</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="65"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <v>45277</v>
+        <v>45272</v>
       </c>
       <c r="E37" s="3">
         <v>1.0833333333333333</v>
@@ -1916,14 +1961,14 @@
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G37:G38" si="9">(E37-F37)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="65"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>45283</v>
+        <v>45274</v>
       </c>
       <c r="E38" s="3">
         <v>1.0833333333333333</v>
@@ -1932,14 +1977,14 @@
         <v>1</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>45284</v>
+        <v>45276</v>
       </c>
       <c r="E39" s="3">
         <v>1.0833333333333333</v>
@@ -1948,33 +1993,31 @@
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="65"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="22">
-        <f>SUM(G32:G39)</f>
-        <v>0.66666666666666607</v>
-      </c>
-      <c r="H40" s="66"/>
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>45277</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
-        <v>45297</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="10">
+        <v>45279</v>
+      </c>
       <c r="E41" s="3">
         <v>1.0833333333333333</v>
       </c>
@@ -1982,16 +2025,14 @@
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" ref="G41:G44" si="9">(E41-F41)</f>
+        <f t="shared" ref="G41" si="10">(E41-F41)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="64">
-        <v>6</v>
-      </c>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>45298</v>
+        <v>45281</v>
       </c>
       <c r="E42" s="3">
         <v>1.0833333333333333</v>
@@ -2000,260 +2041,241 @@
         <v>1</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G42" si="11">(E42-F42)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="65"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
-        <v>45304</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="9"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H43" s="65"/>
+        <v>45283</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
-        <v>45305</v>
+        <v>45284</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="65"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
-        <v>45311</v>
+        <v>45286</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="65"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
-        <v>45312</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+        <v>45288</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="65"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
-        <v>45318</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="65"/>
+      <c r="H46" s="61"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="21">
+        <f>SUM(G31:G46)</f>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
-        <v>45319</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="65"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="62" t="s">
+      <c r="A48" s="71"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="60"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="26">
-        <f>SUM(G41:G48)</f>
-        <v>0.24999999999999978</v>
-      </c>
-      <c r="H49" s="67"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="58" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="26">
+        <f>SUM(G48:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="25" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="38">
-        <f>SUM(H2:H49)</f>
+      <c r="H51" s="37">
+        <f>SUM(H2:H50)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
-    </row>
-    <row r="52" spans="1:8" s="16" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="52"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
-    </row>
-    <row r="53" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
-      <c r="B53" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
-      <c r="B54" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="53" spans="1:8" s="16" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="51"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54"/>
+    </row>
+    <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
       <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="39"/>
-    </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="36" t="s">
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="28"/>
+      <c r="B59" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C59" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="41"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="33"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="44" t="s">
+      <c r="H59" s="40"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="33"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="23"/>
+      <c r="B61" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D61" s="44" t="s">
         <v>20</v>
-      </c>
-      <c r="H60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
-      <c r="B61" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
-      <c r="B62" s="43" t="s">
-        <v>34</v>
+      <c r="B62" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
-      <c r="B63" s="43" t="s">
-        <v>43</v>
+      <c r="B63" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>39</v>
@@ -2261,12 +2283,12 @@
       <c r="D63" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
-      <c r="B64" s="43" t="s">
-        <v>35</v>
+      <c r="B64" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>39</v>
@@ -2274,12 +2296,12 @@
       <c r="D64" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
-      <c r="B65" s="43" t="s">
-        <v>36</v>
+      <c r="B65" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
@@ -2287,47 +2309,60 @@
       <c r="D65" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="39"/>
-    </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="28"/>
-      <c r="B66" s="46" t="s">
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="28"/>
+      <c r="B67" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="41"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="H67" s="40"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="H41:H49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="H48:H50"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="H32:H40"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H31:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34970C25-8BF7-4F5F-8E0B-10C105781365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EA4C0-719F-42D6-A277-923C899E8771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,36 +797,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,7 +806,37 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1120,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1186,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="66">
         <v>9</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
@@ -1238,22 +1238,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="20">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="61"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
@@ -1278,7 +1278,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="66">
         <v>26.5</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
@@ -1330,7 +1330,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -1355,7 +1355,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -1380,7 +1380,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -1405,7 +1405,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -1430,7 +1430,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
@@ -1455,7 +1455,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -1480,7 +1480,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -1505,22 +1505,22 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="22">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="61"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -1545,7 +1545,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="66">
         <v>9.5</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -1597,7 +1597,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="60"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
@@ -1622,22 +1622,22 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="22">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="61"/>
+      <c r="H21" s="68"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
@@ -1662,7 +1662,7 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="66">
         <v>6</v>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="60"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="56">
@@ -1714,22 +1714,22 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="21">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="64"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="56">
@@ -1751,11 +1751,11 @@
         <v>1</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ref="G26:G29" si="5">(E26-F26)</f>
+        <f t="shared" ref="G26:G31" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="60">
-        <v>8</v>
+      <c r="H26" s="67">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1781,19 +1781,19 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="60"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="68">
+      <c r="A28" s="58">
         <v>45242</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="3">
@@ -1806,7 +1806,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="60"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
@@ -1828,83 +1828,88 @@
         <v>1</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" ref="G29:G30" si="6">(E29-F29)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H29" s="67"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="56">
+        <v>45252</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>45254</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="60"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57" t="s">
+      <c r="H31" s="67"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="22">
-        <f>SUM(G26:G29)</f>
-        <v>0.33333333333333304</v>
-      </c>
-      <c r="H30" s="61"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="22">
+        <f>SUM(G26:G31)</f>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="H32" s="68"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>45262</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F31" s="17">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18">
-        <f t="shared" ref="G31" si="6">(E31-F31)</f>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" ref="G33" si="7">(E33-F33)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="59">
-        <f>24</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>45263</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" ref="G32:G40" si="7">(E32-F32)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>45265</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" ref="G33:G34" si="8">(E33-F33)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H33" s="60"/>
+      <c r="H33" s="66">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>45267</v>
+        <v>45263</v>
       </c>
       <c r="E34" s="3">
         <v>1.0833333333333333</v>
@@ -1913,62 +1918,62 @@
         <v>1</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" ref="G34:G42" si="8">(E34-F34)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>45265</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" ref="G35:G36" si="9">(E35-F35)</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>45267</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>45269</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H34" s="60"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>45269</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>45270</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H36" s="60"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>45272</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" ref="G37:G38" si="9">(E37-F37)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H37" s="60"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>45274</v>
+        <v>45270</v>
       </c>
       <c r="E38" s="3">
         <v>1.0833333333333333</v>
@@ -1977,14 +1982,14 @@
         <v>1</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="60"/>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>45276</v>
+        <v>45272</v>
       </c>
       <c r="E39" s="3">
         <v>1.0833333333333333</v>
@@ -1993,14 +1998,14 @@
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G39:G40" si="10">(E39-F39)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="60"/>
+      <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>45277</v>
+        <v>45274</v>
       </c>
       <c r="E40" s="3">
         <v>1.0833333333333333</v>
@@ -2009,14 +2014,14 @@
         <v>1</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H40" s="60"/>
+      <c r="H40" s="67"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>45279</v>
+        <v>45276</v>
       </c>
       <c r="E41" s="3">
         <v>1.0833333333333333</v>
@@ -2025,14 +2030,14 @@
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" ref="G41" si="10">(E41-F41)</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="60"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>45281</v>
+        <v>45277</v>
       </c>
       <c r="E42" s="3">
         <v>1.0833333333333333</v>
@@ -2041,267 +2046,247 @@
         <v>1</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" ref="G42" si="11">(E42-F42)</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H42" s="60"/>
+      <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>45283</v>
-      </c>
+      <c r="A43" s="10"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="60"/>
+      <c r="H43" s="67"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>45284</v>
-      </c>
+      <c r="A44" s="10"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="60"/>
+      <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>45286</v>
-      </c>
+      <c r="A45" s="10"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="61"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
-        <v>45288</v>
-      </c>
+      <c r="A46" s="10"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="61"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="62" t="s">
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="68"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="68"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="21">
-        <f>SUM(G31:G46)</f>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="H47" s="64"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="74">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="21">
+        <f>SUM(G33:G48)</f>
+        <v>0.83333333333333259</v>
+      </c>
+      <c r="H49" s="72"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="61"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="60"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="62" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="26">
-        <f>SUM(G48:G49)</f>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="26">
+        <f>SUM(G50:G51)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="64"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="65" t="s">
+      <c r="H52" s="72"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="25" t="s">
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="37">
-        <f>SUM(H2:H50)</f>
+      <c r="H53" s="37">
+        <f>SUM(H2:H52)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:8" s="16" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="51"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
-    </row>
-    <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="H54" s="39"/>
-    </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
-      <c r="B55" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="38"/>
+    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
+    </row>
+    <row r="55" spans="1:8" s="16" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="51"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
+    </row>
+    <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="10"/>
+      <c r="B59" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="38"/>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+      <c r="B60" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="38"/>
-    </row>
-    <row r="59" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="35" t="s">
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C61" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="33"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="23"/>
-      <c r="B61" s="43" t="s">
+      <c r="H61" s="40"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="33"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:8" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="23"/>
+      <c r="B63" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D63" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="39"/>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
-      <c r="B62" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
-      <c r="B63" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="38"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
@@ -2314,7 +2299,7 @@
     <row r="66" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="42" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>39</v>
@@ -2324,45 +2309,71 @@
       </c>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="28"/>
-      <c r="B67" s="45" t="s">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="1:8" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="28"/>
+      <c r="B69" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D69" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H67" s="40"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="H69" s="40"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A53:F53"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="H50:H52"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H31:H47"/>
+    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="H33:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Почасовая fullstack-middle.xlsx
+++ b/Почасовая fullstack-middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\fullstack_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EA4C0-719F-42D6-A277-923C899E8771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598A2338-60F7-49C5-8906-539B9DB6FD28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
   <si>
     <t>Тема</t>
   </si>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -680,6 +680,32 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -689,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -806,12 +832,24 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,22 +859,27 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1229,7 @@
         <f>(E2-F2)</f>
         <v>0.13194444444444442</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="70">
         <v>9</v>
       </c>
     </row>
@@ -1213,7 +1256,7 @@
         <f t="shared" ref="G3:G9" si="0">(E3-F3)</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="H3" s="67"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
@@ -1238,22 +1281,22 @@
         <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="20">
         <f>SUM(G2:G4)</f>
         <v>0.2763888888888888</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
@@ -1278,7 +1321,7 @@
         <f t="shared" si="0"/>
         <v>9.3055555555555447E-2</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="70">
         <v>26.5</v>
       </c>
     </row>
@@ -1305,7 +1348,7 @@
         <f t="shared" si="0"/>
         <v>9.8611111111111205E-2</v>
       </c>
-      <c r="H7" s="67"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
@@ -1330,7 +1373,7 @@
         <f t="shared" si="0"/>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -1355,7 +1398,7 @@
         <f t="shared" si="0"/>
         <v>9.1666666666666785E-2</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -1380,7 +1423,7 @@
         <f t="shared" ref="G10:G18" si="1">(E10-F10)</f>
         <v>8.6111111111111027E-2</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -1405,7 +1448,7 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222321E-2</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -1430,7 +1473,7 @@
         <f t="shared" si="1"/>
         <v>0.11041666666666661</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
@@ -1455,7 +1498,7 @@
         <f t="shared" si="1"/>
         <v>4.6527777777777724E-2</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -1480,7 +1523,7 @@
         <f>(E14-F14)</f>
         <v>8.4027777777777812E-2</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -1505,22 +1548,22 @@
         <f>(E15-F15)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="22">
         <f>SUM(G6:G15)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="H16" s="68"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -1545,7 +1588,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="70">
         <v>9.5</v>
       </c>
     </row>
@@ -1572,7 +1615,7 @@
         <f t="shared" si="1"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -1597,7 +1640,7 @@
         <f t="shared" ref="G19:G20" si="2">(E19-F19)</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
@@ -1622,22 +1665,22 @@
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="22">
         <f>SUM(G17:G20)</f>
         <v>0.3541666666666663</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="72"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
@@ -1662,7 +1705,7 @@
         <f t="shared" ref="G22" si="3">(E22-F22)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="70">
         <v>6</v>
       </c>
     </row>
@@ -1689,7 +1732,7 @@
         <f>(E23-F23)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H23" s="67"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="56">
@@ -1714,22 +1757,22 @@
         <f t="shared" ref="G24" si="4">(E24-F24)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H24" s="67"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="21">
         <f>SUM(G22:G24)</f>
         <v>0.24999999999999978</v>
       </c>
-      <c r="H25" s="72"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="56">
@@ -1754,7 +1797,7 @@
         <f t="shared" ref="G26:G31" si="5">(E26-F26)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="71">
         <v>12</v>
       </c>
     </row>
@@ -1781,7 +1824,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="58">
@@ -1806,7 +1849,7 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
@@ -1831,15 +1874,21 @@
         <f t="shared" ref="G29:G30" si="6">(E29-F29)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="56">
         <v>45252</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>61</v>
+      </c>
       <c r="E30" s="3">
         <v>1.0833333333333333</v>
       </c>
@@ -1850,78 +1899,99 @@
         <f t="shared" si="6"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="58">
         <v>45254</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3">
+      <c r="B31" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="76">
         <v>1.0833333333333333</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="76">
         <v>1</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H31" s="67"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="22">
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="75">
         <f>SUM(G26:G31)</f>
         <v>0.49999999999999956</v>
       </c>
-      <c r="H32" s="68"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="H32" s="72"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="77">
         <v>45262</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="B33" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="62">
+        <v>1.125</v>
+      </c>
+      <c r="F33" s="62">
         <v>1</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" ref="G33" si="7">(E33-F33)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H33" s="66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="H33" s="70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="56">
         <v>45263</v>
       </c>
+      <c r="B34" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>61</v>
+      </c>
       <c r="E34" s="3">
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" ref="G34:G42" si="8">(E34-F34)</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H34" s="67"/>
+        <v>0.125</v>
+      </c>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -1937,7 +2007,7 @@
         <f t="shared" ref="G35:G36" si="9">(E35-F35)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H35" s="67"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1953,7 +2023,7 @@
         <f t="shared" si="9"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H36" s="67"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -1969,7 +2039,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H37" s="67"/>
+      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -1985,7 +2055,7 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H38" s="67"/>
+      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -2001,7 +2071,7 @@
         <f t="shared" ref="G39:G40" si="10">(E39-F39)</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H39" s="67"/>
+      <c r="H39" s="71"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -2017,7 +2087,7 @@
         <f t="shared" si="10"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H40" s="67"/>
+      <c r="H40" s="71"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -2033,80 +2103,71 @@
         <f t="shared" si="8"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="H41" s="67"/>
+      <c r="H41" s="71"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>45277</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="8"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="H42" s="67"/>
+      <c r="A42" s="10"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="67"/>
+      <c r="H43" s="71"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="67"/>
+      <c r="H44" s="71"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="67"/>
+      <c r="H45" s="71"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="67"/>
+      <c r="H46" s="71"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="68"/>
+      <c r="H47" s="72"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="68"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
       <c r="G49" s="21">
         <f>SUM(G33:G48)</f>
-        <v>0.83333333333333259</v>
-      </c>
-      <c r="H49" s="72"/>
+        <v>0.83333333333333282</v>
+      </c>
+      <c r="H49" s="74"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
@@ -2116,7 +2177,7 @@
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
       <c r="G50" s="63"/>
-      <c r="H50" s="71">
+      <c r="H50" s="73">
         <v>0</v>
       </c>
     </row>
@@ -2128,38 +2189,38 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="67"/>
+      <c r="H51" s="71"/>
     </row>
     <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
       <c r="G52" s="26">
         <f>SUM(G50:G51)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="72"/>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H53" s="37">
         <f>SUM(H2:H52)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2359,12 +2420,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H6:H16"/>
     <mergeCell ref="H2:H5"/>
@@ -2374,6 +2429,12 @@
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="H26:H32"/>
     <mergeCell ref="H33:H49"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
